--- a/src/test/resources/testdata/block_reg.xlsx
+++ b/src/test/resources/testdata/block_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996253D-FC4E-314D-8CCA-E8563A2311E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A668C-C1BB-3F4D-AF5D-6434AE5F2035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="920" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>DONOR INFO</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>19/0066</t>
+  </si>
+  <si>
+    <t>Biological risk assessment number</t>
+  </si>
+  <si>
+    <t>risk1</t>
+  </si>
+  <si>
+    <t>risk2</t>
   </si>
 </sst>
 </file>
@@ -227,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192D199-3D24-FD46-8181-D5EE66C2F681}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,33 +570,34 @@
     <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -607,37 +617,40 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -657,34 +670,37 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -700,32 +716,35 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -742,33 +761,36 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>39</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/src/test/resources/testdata/block_reg.xlsx
+++ b/src/test/resources/testdata/block_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A668C-C1BB-3F4D-AF5D-6434AE5F2035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46293A-7C58-F94C-8B70-F1D2926D986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>DONOR INFO</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>risk2</t>
+  </si>
+  <si>
+    <t>Cell class</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Organoid</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192D199-3D24-FD46-8181-D5EE66C2F681}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,32 +581,33 @@
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -623,34 +633,37 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -676,31 +689,34 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -720,31 +736,34 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -767,30 +786,33 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/src/test/resources/testdata/block_reg.xlsx
+++ b/src/test/resources/testdata/block_reg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46293A-7C58-F94C-8B70-F1D2926D986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59177633-906C-AB42-8FD2-CE6F6D5BCB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>19/0067</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Organoid</t>
+  </si>
+  <si>
+    <t>Homo sapiens (Human)</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -680,22 +680,22 @@
         <v>44705</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -707,42 +707,42 @@
         <v>19</v>
       </c>
       <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
       <c r="E4">
         <v>44705</v>
       </c>
       <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -754,21 +754,21 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -777,22 +777,22 @@
         <v>44706</v>
       </c>
       <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -804,16 +804,16 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
         <v>40</v>
-      </c>
-      <c r="R5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
